--- a/RoundTube_Valid.xlsx
+++ b/RoundTube_Valid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schimmer\OneDrive - Rose-Hulman Institute of Technology\Documents\!! RHIT Fall 2021-22\EM204\EM204_Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{741D8360-0449-46E7-A7B4-5ED1DEFD4499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3182201-F704-493B-9514-4F491EFA01DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14985" yWindow="1995" windowWidth="13500" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="13500" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -385,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63F18A3-AA89-4C27-A2B8-63FBF8EF687B}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,107 +1046,6 @@
         <v>3665.12</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>4.25</v>
-      </c>
-      <c r="B32">
-        <v>0.5</v>
-      </c>
-      <c r="C32">
-        <v>3.25</v>
-      </c>
-      <c r="D32">
-        <v>2.4197111347980038</v>
-      </c>
-      <c r="E32">
-        <v>6.93</v>
-      </c>
-      <c r="F32" s="1">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>12</v>
-      </c>
-      <c r="B33">
-        <v>0.25</v>
-      </c>
-      <c r="C33">
-        <v>11.5</v>
-      </c>
-      <c r="D33">
-        <v>0.4518792969781173</v>
-      </c>
-      <c r="E33">
-        <v>10.83</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>8.5</v>
-      </c>
-      <c r="B34">
-        <v>0.5</v>
-      </c>
-      <c r="C34">
-        <v>7.5</v>
-      </c>
-      <c r="D34">
-        <v>0.50533242631512298</v>
-      </c>
-      <c r="E34">
-        <f>103.39/7</f>
-        <v>14.77</v>
-      </c>
-      <c r="F34" s="1">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>9</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>7</v>
-      </c>
-      <c r="D35">
-        <v>0.26444205929114922</v>
-      </c>
-      <c r="E35">
-        <v>29.56</v>
-      </c>
-      <c r="F35" s="1">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>8</v>
-      </c>
-      <c r="B36">
-        <v>1.5</v>
-      </c>
-      <c r="C36">
-        <v>5</v>
-      </c>
-      <c r="D36">
-        <v>0.2817193806847032</v>
-      </c>
-      <c r="E36">
-        <v>36.020000000000003</v>
-      </c>
-      <c r="F36" s="1">
-        <v>1000000</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
